--- a/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.025294516771736</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.101093961605143</v>
+        <v>3.101093961605142</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8450208344165204</v>
@@ -664,7 +664,7 @@
         <v>-0.6122788005259693</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.552365391317584</v>
+        <v>3.552365391317585</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.067159837093381</v>
+        <v>-2.502385853705947</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.584816434901861</v>
+        <v>-2.426370980530445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6272321588408417</v>
+        <v>0.3032107775584658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.725311479838723</v>
+        <v>-2.813987127559659</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.455670287981094</v>
+        <v>-5.519183589789907</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6652790212418004</v>
+        <v>-0.7412036072183711</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.632231103327015</v>
+        <v>-1.507274535341132</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.825767620028956</v>
+        <v>-2.859241495100315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.205898460159316</v>
+        <v>0.8614933171991743</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.861364566246678</v>
+        <v>3.969187675452664</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.492450539538193</v>
+        <v>3.711926391886978</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.135556991195452</v>
+        <v>6.902922249729457</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.784910590382502</v>
+        <v>6.048976878532271</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.131400547335601</v>
+        <v>1.644530532856521</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.543832827446135</v>
+        <v>6.478229840535815</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.500217638461525</v>
+        <v>3.538912318773899</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.542540137192662</v>
+        <v>1.658425088057155</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.765383307988912</v>
+        <v>5.792636520722362</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3372917315856239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5164549370265289</v>
+        <v>0.5164549370265286</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1633256263941888</v>
@@ -769,7 +769,7 @@
         <v>-0.1183412462165341</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6866011808082814</v>
+        <v>0.6866011808082817</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3754447995904329</v>
+        <v>-0.4137885675358858</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4577357832975147</v>
+        <v>-0.4291979443959325</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04164418813745641</v>
+        <v>0.02264930713852009</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3851024148177856</v>
+        <v>-0.3857987456642568</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7019972055632755</v>
+        <v>-0.659881594900395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09792172973756093</v>
+        <v>-0.1075652452011085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2737371097954444</v>
+        <v>-0.2496771495660845</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4446309467956936</v>
+        <v>-0.4480028347325776</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1811675057306289</v>
+        <v>0.1240439761470413</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.194780217859079</v>
+        <v>1.120975656569205</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.089320285469713</v>
+        <v>1.177513489249715</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.006451943654122</v>
+        <v>2.001450015499642</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.471245608317446</v>
+        <v>1.337529478929705</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.329905005646326</v>
+        <v>0.5741539889477735</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.656865927109517</v>
+        <v>1.664734030741338</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.833845459644771</v>
+        <v>0.8275280902962141</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4293904712291462</v>
+        <v>0.4478820768813506</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.44165334699134</v>
+        <v>1.50219066545129</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.725707971110135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.942200808545875</v>
+        <v>5.942200808545873</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.796961841297015</v>
@@ -878,7 +878,7 @@
         <v>1.782781454802877</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.714977327668961</v>
+        <v>3.714977327668963</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8664745862196996</v>
+        <v>-0.7521229175962839</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.574425920936619</v>
+        <v>-0.5859449421040592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.426093689592529</v>
+        <v>2.48741254164777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.751139313133542</v>
+        <v>-2.678947705371728</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.117993460166699</v>
+        <v>-2.991576958878314</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.419791496969392</v>
+        <v>-2.584399530028632</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9102167436649048</v>
+        <v>-1.084546428196939</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9422567855590791</v>
+        <v>-0.8864026707725644</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8600292998448231</v>
+        <v>1.045664194206916</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.743320878069745</v>
+        <v>6.047556815160897</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.033966990149961</v>
+        <v>6.362590461201442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.495748217438507</v>
+        <v>9.76076433165459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.484749295153079</v>
+        <v>6.057760129198504</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.288947328467999</v>
+        <v>5.087892428540464</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.974228667667754</v>
+        <v>5.113465977069417</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.858514397022208</v>
+        <v>4.837664012029158</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.52262621303035</v>
+        <v>4.474604378096933</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.15948972472281</v>
+        <v>6.549302016281938</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.73902048004917</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.611107330875065</v>
+        <v>1.611107330875064</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2218593139041442</v>
@@ -983,7 +983,7 @@
         <v>0.3017248176764347</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6287371084342721</v>
+        <v>0.6287371084342723</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2030034929417305</v>
+        <v>-0.185032572321738</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1247911422214401</v>
+        <v>-0.1677818279682988</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3471102084850863</v>
+        <v>0.3519849097992941</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2771473164020571</v>
+        <v>-0.2710607432213084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3242226376835464</v>
+        <v>-0.2998168692730272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.242311537110827</v>
+        <v>-0.2477762988645954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1344329245456861</v>
+        <v>-0.1432844991081775</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1330715007566941</v>
+        <v>-0.1341774135504629</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1185278018673274</v>
+        <v>0.1233896756420957</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.453499886041962</v>
+        <v>3.14402423452346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.869158471329152</v>
+        <v>3.111035175743538</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.418011734310832</v>
+        <v>4.488202672143409</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.104709250473706</v>
+        <v>0.9637125513107555</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9626488879247619</v>
+        <v>0.8836942527413346</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7961657767663077</v>
+        <v>0.8072246966763954</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.0298465621727</v>
+        <v>1.044287850057711</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9730573410434992</v>
+        <v>0.9969874662204981</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.358114290373213</v>
+        <v>1.4319017291654</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.391325429267074</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.040100098169299</v>
+        <v>3.040100098169302</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.042093686419722</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.176993857961443</v>
+        <v>1.096066781843446</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1256475687437778</v>
+        <v>0.3876096461609009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.197112625104654</v>
+        <v>4.420597282026143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.994730951171144</v>
+        <v>-6.888014100911076</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.593807574436963</v>
+        <v>-5.465299753493002</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.921977192822424</v>
+        <v>-4.071838811327689</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1434407531197185</v>
+        <v>0.5237794688320559</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2067947730347298</v>
+        <v>-0.1268640579079607</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.339897341127754</v>
+        <v>3.599362793291881</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.392945669444419</v>
+        <v>6.94535206476669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.115595124406125</v>
+        <v>6.545804044925482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.54294190347743</v>
+        <v>11.51442432359955</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.426579759117862</v>
+        <v>5.559694230237892</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.415908985563762</v>
+        <v>9.3012125915191</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.334280971912076</v>
+        <v>8.961707334182071</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.642656403516947</v>
+        <v>5.78151389189325</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.615769846413596</v>
+        <v>5.959786864115083</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.696660711425931</v>
+        <v>9.812167277028063</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.116142750668537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.25377642087306</v>
+        <v>0.2537764208730602</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4557922907282009</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1506473271234935</v>
+        <v>0.1162345833978226</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01736939185878672</v>
+        <v>0.05030319320857321</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6532701125722123</v>
+        <v>0.644028894618736</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5112221925745436</v>
+        <v>-0.4299902948441099</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3879299423523465</v>
+        <v>-0.3595987758024732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2578074723023705</v>
+        <v>-0.2550383622625723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00510930346067682</v>
+        <v>0.04257241339832676</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04450661080781948</v>
+        <v>-0.05427704218097953</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3808088962026554</v>
+        <v>0.4188156759871962</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.950342594185339</v>
+        <v>1.819236680270616</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.53719284367488</v>
+        <v>1.719393604942487</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.136756298978501</v>
+        <v>3.054805757757293</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6653968501503453</v>
+        <v>0.7024119022072454</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.174027896181378</v>
+        <v>1.245400311636124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.163025956297189</v>
+        <v>1.107416810729763</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.090312857754317</v>
+        <v>1.065452570014702</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.046195862080477</v>
+        <v>1.072984494718111</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.730329241727941</v>
+        <v>1.764444435663668</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.090398325452886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.830181562408627</v>
+        <v>5.83018156240863</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.115141464679923</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.591119649825757</v>
+        <v>1.509580128339281</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007505756502997781</v>
+        <v>0.07361428713807687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.604970461623976</v>
+        <v>3.316661836282636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.780741814015576</v>
+        <v>1.999417321140613</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7369737336830219</v>
+        <v>-1.064233351304983</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.999395196371911</v>
+        <v>2.806198361371547</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.588719901002166</v>
+        <v>2.46088847342481</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3176965966031313</v>
+        <v>0.4187927746532051</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.990360611759024</v>
+        <v>3.968436917221141</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.090538937994971</v>
+        <v>6.139828381697305</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.498623122801601</v>
+        <v>4.356647669520437</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.182832497029118</v>
+        <v>8.085974697041696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.352711425463269</v>
+        <v>8.269970251228569</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.050047199258488</v>
+        <v>4.667950507561413</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.721741134631596</v>
+        <v>8.390352574711624</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.233789728809504</v>
+        <v>6.13485178365797</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.779255840097135</v>
+        <v>3.910431006383391</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.526919023906722</v>
+        <v>7.766110481988478</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3430025732696393</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9566441257563265</v>
+        <v>0.956644125756327</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6487640780584135</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2298408699005609</v>
+        <v>0.2230349647416454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01352922056333205</v>
+        <v>-0.003045934135176364</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.47935227505156</v>
+        <v>0.4564201574526511</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1969270722337328</v>
+        <v>0.1939414531334468</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08445762906823874</v>
+        <v>-0.1182786108045271</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2998512718154089</v>
+        <v>0.2881307126597769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3407166703454005</v>
+        <v>0.3361062487344955</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04197027463651895</v>
+        <v>0.05949716499524482</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5189615740456133</v>
+        <v>0.5232700817061731</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.179015806686584</v>
+        <v>1.209743574960466</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.876024550933646</v>
+        <v>0.853121301871072</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.609541274361879</v>
+        <v>1.543809807878748</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.314122318240868</v>
+        <v>1.240843118509896</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7681240583382164</v>
+        <v>0.7084547852313089</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.290781144887915</v>
+        <v>1.300783570835936</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.050974978130119</v>
+        <v>1.036332372987353</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6241827149562648</v>
+        <v>0.6387252393951031</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.284993885526144</v>
+        <v>1.289082297390189</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1862359761770953</v>
+        <v>-0.391546798143062</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.375593340193084</v>
+        <v>1.537080298673817</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.639862608068703</v>
+        <v>2.041899791954437</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.405884915129181</v>
+        <v>5.258564693872405</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.742557160077273</v>
+        <v>5.890886798560879</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.931978112579607</v>
+        <v>7.038999792581184</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.925030740148231</v>
+        <v>3.98212074312677</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.524591940925</v>
+        <v>4.698647766963662</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.590422603797742</v>
+        <v>5.730597139872522</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.948305344264953</v>
+        <v>6.647565443754147</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.234018545231303</v>
+        <v>8.265612502107352</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.02202202130051</v>
+        <v>8.778800500811645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.86880999041756</v>
+        <v>12.88819609560207</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.56428598358005</v>
+        <v>13.44480019740583</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.28373341403612</v>
+        <v>13.73175460765162</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.26715776347551</v>
+        <v>9.507874593530092</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.670468375599986</v>
+        <v>9.825213114212099</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.54767764318571</v>
+        <v>10.67304365692734</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01753557593573055</v>
+        <v>-0.07620892080630147</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1706533167659426</v>
+        <v>0.1671917983421363</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1900860321863347</v>
+        <v>0.2735897675230527</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4862916890350506</v>
+        <v>0.4516038495275017</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5254377001066958</v>
+        <v>0.5128444797355325</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6048981314003092</v>
+        <v>0.648368829899974</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4407905898400339</v>
+        <v>0.4552651206941744</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.507983509444876</v>
+        <v>0.5196498470713222</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6390317851696197</v>
+        <v>0.6430958258977754</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.230148428462498</v>
+        <v>2.070491924330951</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.669078380112765</v>
+        <v>2.64209917492138</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.850228943319542</v>
+        <v>2.806829543040664</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.822853802885273</v>
+        <v>1.809465459595293</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.884766316139409</v>
+        <v>1.872120864838686</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.862361767508858</v>
+        <v>2.052658269114012</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.525009083872462</v>
+        <v>1.57346626026855</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.544800507633165</v>
+        <v>1.617567201508011</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.781575536025312</v>
+        <v>1.744904085661666</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.9727153500100307</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.398197999512456</v>
+        <v>3.398197999512454</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.519827188888654</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.332625459492386</v>
+        <v>-1.568509450922248</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.602049724177246</v>
+        <v>-4.025711914160065</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.4567992804571458</v>
+        <v>-0.3550900759254541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.828381309252211</v>
+        <v>1.986176827327234</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.2498631238334745</v>
+        <v>0.2523288202280906</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.876755644115022</v>
+        <v>4.55484335293192</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.591702600256725</v>
+        <v>1.778816395122152</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1408030500490507</v>
+        <v>-0.258306759813155</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.292815436614618</v>
+        <v>4.201150980363496</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.621861877778684</v>
+        <v>5.46376914899442</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.692917463637336</v>
+        <v>1.54517471638725</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.032340998921201</v>
+        <v>9.792406658966749</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.148761165177345</v>
+        <v>7.031270900971316</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.477070424971131</v>
+        <v>5.677114681114275</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.30049106090097</v>
+        <v>10.24165127633813</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.276790158056117</v>
+        <v>6.400590835552393</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.277931697249493</v>
+        <v>3.992175580215964</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.09160291986414</v>
+        <v>9.373840871441546</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.2780309711187247</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.9713060350578537</v>
+        <v>0.9713060350578534</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.5086399733346882</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.326950445880736</v>
+        <v>-0.3948404256382414</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7655336371894469</v>
+        <v>-0.7774988182907735</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2569104394238972</v>
+        <v>-0.2344337428144165</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1606062153388589</v>
+        <v>0.1938870196845811</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.02093911126165727</v>
+        <v>0.0238197600582121</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4774536467490015</v>
+        <v>0.4574800878549553</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1857220080421109</v>
+        <v>0.200176282440812</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02158274026876144</v>
+        <v>-0.02278319191014743</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4818765558824512</v>
+        <v>0.4762176838394043</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.578689245444054</v>
+        <v>2.356514170158408</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9123063823091085</v>
+        <v>0.7362350006794681</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.948656034620694</v>
+        <v>3.953294369945698</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9216847206996133</v>
+        <v>0.8883261247275935</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7031221920853354</v>
+        <v>0.7334164708436854</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.348593895320463</v>
+        <v>1.295219810710786</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9274641070763818</v>
+        <v>0.9452273282270583</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6200027764382399</v>
+        <v>0.5962734145330105</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.371759118425155</v>
+        <v>1.350019951649306</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.320419415930133</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.479530159500674</v>
+        <v>5.479530159500672</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.787643076851926</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.702496620178524</v>
+        <v>1.782932512191134</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.131384014923932</v>
+        <v>1.077705800035597</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.054917927829035</v>
+        <v>4.11452213715647</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.390276070592725</v>
+        <v>3.315548705951379</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.986814775967455</v>
+        <v>1.875533689454875</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.755814171438179</v>
+        <v>4.581922994216971</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.951277103870827</v>
+        <v>2.912655325934454</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.855428151748759</v>
+        <v>1.800168106982244</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.83433366430827</v>
+        <v>4.88494529111018</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.221497294905154</v>
+        <v>4.3238104495236</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.511938595737832</v>
+        <v>3.557200604719954</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.829677697184393</v>
+        <v>6.870017108584356</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.344820828495211</v>
+        <v>6.36335782432777</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.761729845102333</v>
+        <v>4.771412160080865</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.482468088468368</v>
+        <v>7.424882959634973</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.969714374652471</v>
+        <v>4.922683528999266</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.757991375456594</v>
+        <v>3.829501745309086</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.732814384027641</v>
+        <v>6.808171629719154</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.4569956946132802</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.079167703133384</v>
+        <v>1.079167703133383</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5644604954564341</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2897075288500393</v>
+        <v>0.318051968028173</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2029027189649757</v>
+        <v>0.1916451216215009</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6899335916329484</v>
+        <v>0.7186045613543841</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3731577150208777</v>
+        <v>0.3659211930774254</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2183325589432536</v>
+        <v>0.1999946549972076</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5242398338777943</v>
+        <v>0.4917570327488512</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3990511810664716</v>
+        <v>0.3978057988307258</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2471638562283258</v>
+        <v>0.244530682696831</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6578699470084185</v>
+        <v>0.6700137812830713</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9128016452407913</v>
+        <v>0.9480261998611366</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7685284155356993</v>
+        <v>0.7949378632833199</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.473849365225381</v>
+        <v>1.525528993074629</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8242401172115043</v>
+        <v>0.806404611214249</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6269041145049566</v>
+        <v>0.6002258657051353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9893024658750907</v>
+        <v>0.956519658158554</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7695191291439943</v>
+        <v>0.7791601267182529</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5886478521496227</v>
+        <v>0.6001486489649488</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.0518256393188</v>
+        <v>1.084123977741568</v>
       </c>
     </row>
     <row r="46">
